--- a/biology/Botanique/Pimpinella_ledermannii/Pimpinella_ledermannii.xlsx
+++ b/biology/Botanique/Pimpinella_ledermannii/Pimpinella_ledermannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpinella ledermannii H. Wolff est une espèce d'herbes de la famille des Apiaceae et du genre Pimpinella, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique rend hommage au botaniste suisse Carl Ludwig Ledermann [2], qui collecta le premier spécimen sur les monts Bamboutos (Cameroun) en décembre 1907[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique rend hommage au botaniste suisse Carl Ludwig Ledermann , qui collecta le premier spécimen sur les monts Bamboutos (Cameroun) en décembre 1907.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 janvier 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 janvier 2018) :
 sous-espèce Pimpinella ledermannii subsp. engleriana
 sous-espèce Pimpinella ledermannii subsp. ledermannii
-Selon The Plant List            (19 janvier 2018)[1] :
+Selon The Plant List            (19 janvier 2018) :
 sous-espèce Pimpinella ledermannii subsp. engleriana (H. Wolff) C.C. Towns.
-Selon Tropicos                                           (19 janvier 2018)[5] :
+Selon Tropicos                                           (19 janvier 2018) :
 sous-espèce Pimpinella ledermannii subsp. engleriana (H. Wolff) C.C. Towns.</t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Pimpinella ledermannii subsp. ledermannii est présente principalement au Cameroun, dans la Région de l'Adamaoua et celle de l'Ouest (monts Bamboutos[6]).
-La sous-espèce Pimpinella ledermannii subsp. engleriana est présente en Tanzanie[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Pimpinella ledermannii subsp. ledermannii est présente principalement au Cameroun, dans la Région de l'Adamaoua et celle de l'Ouest (monts Bamboutos).
+La sous-espèce Pimpinella ledermannii subsp. engleriana est présente en Tanzanie.
 </t>
         </is>
       </c>
